--- a/LuBan/cfgs/Datas/__tables__.xlsx
+++ b/LuBan/cfgs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>旅行柴柴文本表.xlsx</t>
+  </si>
+  <si>
+    <t>TBTypeMapTest</t>
+  </si>
+  <si>
+    <t>CfTypeMapTest</t>
+  </si>
+  <si>
+    <t>类型映射测试.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1438,7 +1447,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1464,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1481,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1498,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1497,7 +1518,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1514,7 +1538,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1558,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1548,7 +1578,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -1562,7 +1595,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -1576,7 +1612,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +1629,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -1604,7 +1646,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -1618,7 +1663,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
@@ -1632,7 +1680,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -1646,7 +1697,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -1660,7 +1714,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
@@ -1674,7 +1731,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -1688,7 +1748,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -1702,7 +1765,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
       <c r="B22" t="s">
         <v>82</v>
       </c>
@@ -1716,7 +1782,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
       <c r="B23" t="s">
         <v>85</v>
       </c>
@@ -1730,7 +1799,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
@@ -1744,7 +1816,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
       <c r="B25" t="s">
         <v>91</v>
       </c>
@@ -1758,7 +1833,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
       <c r="B26" t="s">
         <v>94</v>
       </c>
@@ -1772,7 +1850,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -1786,7 +1867,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
       <c r="B28" t="s">
         <v>100</v>
       </c>
@@ -1800,7 +1884,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
       <c r="B29" t="s">
         <v>103</v>
       </c>
@@ -1817,7 +1904,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
       <c r="B30" t="s">
         <v>106</v>
       </c>
@@ -1831,7 +1921,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:5">
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
       <c r="B31" t="s">
         <v>109</v>
       </c>
@@ -1845,7 +1938,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
       <c r="B32" t="s">
         <v>112</v>
       </c>
@@ -1862,7 +1958,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
       <c r="B33" t="s">
         <v>115</v>
       </c>
@@ -1874,6 +1973,23 @@
       </c>
       <c r="E33" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/cfgs/Datas/__tables__.xlsx
+++ b/LuBan/cfgs/Datas/__tables__.xlsx
@@ -383,13 +383,13 @@
     <t>旅行柴柴文本表.xlsx</t>
   </si>
   <si>
-    <t>TBTypeMapTest</t>
-  </si>
-  <si>
-    <t>CfTypeMapTest</t>
-  </si>
-  <si>
-    <t>类型映射测试.xlsx</t>
+    <t>TBTemp</t>
+  </si>
+  <si>
+    <t>CfTemp</t>
+  </si>
+  <si>
+    <t>多语言测试表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/LuBan/cfgs/Datas/__tables__.xlsx
+++ b/LuBan/cfgs/Datas/__tables__.xlsx
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
